--- a/docs/misc/DiskretSimultanfördelningKovarians.xlsx
+++ b/docs/misc/DiskretSimultanfördelningKovarians.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Simultanfördelning för två variabler:</t>
   </si>
@@ -31,16 +31,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Är X och Y oberoende? </t>
-  </si>
-  <si>
     <t>Marginal X</t>
-  </si>
-  <si>
-    <t>Kolla om alla simultansannolikheter är produkten av marginalsannolikheter:</t>
-  </si>
-  <si>
-    <t>Dvs om P(X=x, Y=y) = P(X=x)*P(Y=y) för alla x och y</t>
   </si>
   <si>
     <t>X</t>
@@ -52,19 +43,7 @@
     <t>Väntevärdet för X:</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabellen ovan visar att simultansannolikheterna inte riktigt är lika  </t>
-  </si>
-  <si>
-    <t>med produkten av marginalsannolikheterna. Så X och Y är beroende.</t>
-  </si>
-  <si>
     <t>Väntevärdet för Y:</t>
-  </si>
-  <si>
-    <t>För att visa på beroende räcker det om en enda av</t>
-  </si>
-  <si>
-    <t>simultansannolikheterna skiljer sig från produkten av marginalsannolikheter</t>
   </si>
   <si>
     <t xml:space="preserve">Variansen för X: </t>
@@ -84,6 +63,42 @@
   <si>
     <t>Korrelationen mellan X och Y</t>
   </si>
+  <si>
+    <t xml:space="preserve">Är X och Y oberoende? </t>
+  </si>
+  <si>
+    <t>Kolla om alla simultansannolikheter är produkten av marginalsannolikheter:</t>
+  </si>
+  <si>
+    <t>Dvs om P(X=x, Y=y) = P(X=x)*P(Y=y) för alla x och y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabellen ovan visar att simultansannolikheterna inte är lika  </t>
+  </si>
+  <si>
+    <t>med produkten av marginalsannolikheterna. Så X och Y är beroende.</t>
+  </si>
+  <si>
+    <t>För att visa på beroende räcker det om en enda av</t>
+  </si>
+  <si>
+    <t>simultansannolikheterna skiljer sig från produkten av marginalsannolikheter</t>
+  </si>
+  <si>
+    <t>Data för plottar (ignorera)</t>
+  </si>
+  <si>
+    <t>P(Y=y)</t>
+  </si>
+  <si>
+    <t>P(x,y)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>SUMMA</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -129,6 +144,16 @@
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -145,32 +170,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -191,9 +204,39 @@
         <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border/>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
     <border>
       <left style="thick">
         <color rgb="FF9900FF"/>
@@ -216,19 +259,6 @@
       </top>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9900FF"/>
       </left>
@@ -236,11 +266,6 @@
     <border>
       <right style="thick">
         <color rgb="FF9900FF"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
     </border>
     <border>
@@ -268,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -281,79 +306,50 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -362,14 +358,55 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -397,8 +434,1075 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Marginalfördelning för X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D5A6BD"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$B$9:$B$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$F$9:$F$11</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="484503357"/>
+        <c:axId val="1748660856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="484503357"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748660856"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1748660856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>P(X=x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484503357"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Marginalfördelning för Y</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="93C47D"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$Y$60:$Y$62</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$60:$Z$62</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1492593301"/>
+        <c:axId val="1041525936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1492593301"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1041525936"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1041525936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>P(Y=y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492593301"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Simultanfördelning P(x,y)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$66</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$66</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$66</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$67</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$67</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$67</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$68</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$68</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$68</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$69</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$69</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$69</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$70</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$70</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$71</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$71</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$71</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$72</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$72</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$72</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$73</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$73</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$73</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$W$74</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Simultanfördelning'!$X$74</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simultanfördelning'!$Z$74</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+        </c:ser>
+        <c:axId val="1766603449"/>
+        <c:axId val="1358739365"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="1766603449"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358739365"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1358739365"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766603449"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3086100" cy="1914525"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3086100" cy="1914525"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6353175" cy="3943350"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -645,11 +1749,11 @@
     <xdr:ext cx="1228725" cy="647700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -673,11 +1777,11 @@
     <xdr:ext cx="1200150" cy="419100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -701,11 +1805,11 @@
     <xdr:ext cx="3257550" cy="685800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -729,11 +1833,11 @@
     <xdr:ext cx="1857375" cy="657225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -757,11 +1861,11 @@
     <xdr:ext cx="1857375" cy="695325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1020,355 +2124,781 @@
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
+      <c r="G8" s="8"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="9">
         <v>0.0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="C9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:F12" si="1">sum(C9:E9)</f>
+        <v>0.32</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
         <v>1.0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="C10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9">
         <v>2.0</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="L8" s="12" t="s">
+      <c r="C11" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" ref="F9:F12" si="1">sum(C9:E9)</f>
-        <v>0.17</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16">
+        <f t="shared" ref="C12:E12" si="2">SUM(C9:C11)</f>
         <v>0.4</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.43</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O11" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="P11" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
-        <f t="shared" ref="C12:E12" si="2">SUM(C9:C11)</f>
-        <v>0.55</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="D12" s="16">
         <f t="shared" si="2"/>
-        <v>0.35</v>
-      </c>
-      <c r="E12" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="E12" s="16">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="26">
-        <f>F9*C12</f>
-        <v>0.0935</v>
-      </c>
-      <c r="O12" s="26">
-        <f>D12*F9</f>
-        <v>0.0595</v>
-      </c>
-      <c r="P12" s="26">
-        <f>E12*F9</f>
-        <v>0.017</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13">
-      <c r="L13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="N13" s="26">
-        <f>F10*C12</f>
-        <v>0.22</v>
-      </c>
-      <c r="O13" s="26">
-        <f>F10*D12</f>
-        <v>0.14</v>
-      </c>
-      <c r="P13" s="26">
-        <f>F10*E12</f>
-        <v>0.04</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14">
-      <c r="L14" s="19"/>
-      <c r="M14" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="N14" s="26">
-        <f>F11*C12</f>
-        <v>0.2365</v>
-      </c>
-      <c r="O14" s="26">
-        <f>F11*D12</f>
-        <v>0.1505</v>
-      </c>
-      <c r="P14" s="26">
-        <f>F11*E12</f>
-        <v>0.043</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="G15" s="30">
+      <c r="A15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="G15" s="20">
         <f>B9*F9+B10*F10+B11*F11</f>
-        <v>1.26</v>
-      </c>
-      <c r="I15" s="25" t="str">
+        <v>0.98</v>
+      </c>
+      <c r="I15" s="17" t="str">
         <f>IF(F12=1,"OK! Simultana sannolikheter summerar till 1","VARNING! Simultana sannolikheter summerar inte till 1")</f>
         <v>OK! Simultana sannolikheter summerar till 1</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="4"/>
     </row>
     <row r="16">
-      <c r="L16" s="17" t="s">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="G18" s="20">
+        <f>C8*C12+D8*D12+E8*E12</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="H21" s="20">
+        <f>(B9-$G$15)^2*F9+(B10-$G$15)^2*F10+(B11-$G$15)^2*F11</f>
+        <v>0.6196</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="20">
+        <f>sqrt(H21)</f>
+        <v>0.7871467462</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="L17" s="12" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="H24" s="20">
+        <f>(C8-$G$18)^2*C12 + (D8-$G$18)^2*D12 + (D8-$G$18)^2*D12</f>
+        <v>0.293584</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="28" t="s">
+      <c r="K24" s="23"/>
+      <c r="L24" s="20">
+        <f>SQRT(H24)</f>
+        <v>0.5418339229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="G18" s="30">
-        <f>C8*C12+D8*D12+E8*E12</f>
-        <v>0.55</v>
-      </c>
-      <c r="L18" s="32" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="J26" s="20">
+        <f>(B9-$G$15)*(C8-$G$18)*C9 + (B10-$G$15)*(C8-$G$18)*C10 + (B11-$G$15)*(C8-$G$18)*C11 + (B9-$G$15)*(D8-$G$18)*D9 + (B10-$G$15)*(D8-$G$18)*D10 + (B11-$G$15)*(D8-$G$18)*D11 + (B9-$G$15)*(E8-$G$18)*E9 + (B10-$G$15)*(E8-$G$18)*E10 + (B11-$G$15)*(E8-$G$18)*E11</f>
+        <v>0.3264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="33"/>
-    </row>
-    <row r="19">
-      <c r="L19" s="34" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="I31" s="20">
+        <f>J26/(L21*L24)</f>
+        <v>0.7652939039</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="O34" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="37" t="s">
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="30"/>
+    </row>
+    <row r="35">
+      <c r="O35" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="H21" s="30">
-        <f>(B9-$G$15)^2*F9+(B10-$G$15)^2*F10+(B11-$G$15)^2*F11</f>
-        <v>0.5324</v>
-      </c>
-      <c r="J21" s="39" t="s">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="32"/>
+    </row>
+    <row r="36">
+      <c r="O36" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="30">
-        <f>sqrt(H21)</f>
-        <v>0.7296574539</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="37" t="s">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="32"/>
+    </row>
+    <row r="37">
+      <c r="O37" s="34"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38">
+      <c r="O38" s="34"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="R38" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="S38" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="T38" s="37"/>
+      <c r="U38" s="32"/>
+    </row>
+    <row r="39">
+      <c r="O39" s="34"/>
+      <c r="P39" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" s="38">
+        <f>F9*C12</f>
+        <v>0.128</v>
+      </c>
+      <c r="R39" s="38">
+        <f>D12*F9</f>
+        <v>0.1216</v>
+      </c>
+      <c r="S39" s="38">
+        <f>E12*F9</f>
+        <v>0.0704</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="32"/>
+    </row>
+    <row r="40">
+      <c r="O40" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" s="38">
+        <f>F10*C12</f>
+        <v>0.152</v>
+      </c>
+      <c r="R40" s="38">
+        <f>F10*D12</f>
+        <v>0.1444</v>
+      </c>
+      <c r="S40" s="38">
+        <f>F10*E12</f>
+        <v>0.0836</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="32"/>
+    </row>
+    <row r="41">
+      <c r="O41" s="34"/>
+      <c r="P41" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="Q41" s="38">
+        <f>F11*C12</f>
+        <v>0.12</v>
+      </c>
+      <c r="R41" s="38">
+        <f>F11*D12</f>
+        <v>0.114</v>
+      </c>
+      <c r="S41" s="38">
+        <f>F11*E12</f>
+        <v>0.066</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="32"/>
+    </row>
+    <row r="42">
+      <c r="O42" s="40"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="32"/>
+    </row>
+    <row r="43">
+      <c r="O43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="H24" s="30">
-        <f>(C8-$G$18)^2*C12 + (D8-$G$18)^2*D12 + (D8-$G$18)^2*D12</f>
-        <v>0.308125</v>
-      </c>
-      <c r="J24" s="39" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="32"/>
+    </row>
+    <row r="44">
+      <c r="O44" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="30">
-        <f>SQRT(H24)</f>
-        <v>0.5550900828</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="41" t="s">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="32"/>
+    </row>
+    <row r="45">
+      <c r="O45" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="J26" s="30">
-        <f>(B9-$G$15)*(C8-$G$18)*C9 + (B10-$G$15)*(C8-$G$18)*C10 + (B11-$G$15)*(C8-$G$18)*C11 + (B9-$G$15)*(D8-$G$18)*D9 + (B10-$G$15)*(D8-$G$18)*D10 + (B11-$G$15)*(D8-$G$18)*D11 + (B9-$G$15)*(E8-$G$18)*E9 + (B10-$G$15)*(E8-$G$18)*E10 + (B11-$G$15)*(E8-$G$18)*E11</f>
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="43" t="s">
+      <c r="U45" s="42"/>
+    </row>
+    <row r="46">
+      <c r="O46" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="I31" s="30">
-        <f>J26/(L21*L24)</f>
-        <v>0.06666245023</v>
-      </c>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45"/>
+    </row>
+    <row r="47">
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+    </row>
+    <row r="48">
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+    </row>
+    <row r="49">
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+    </row>
+    <row r="50">
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+    </row>
+    <row r="51">
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+    </row>
+    <row r="52">
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+    </row>
+    <row r="53">
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+    </row>
+    <row r="54">
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+    </row>
+    <row r="55">
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+    </row>
+    <row r="56">
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+    </row>
+    <row r="57">
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+    </row>
+    <row r="58">
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+    </row>
+    <row r="59">
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="47">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="47">
+        <f>C12</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="47">
+        <f>D8</f>
+        <v>1</v>
+      </c>
+      <c r="Z61" s="47">
+        <f>D12</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47">
+        <f>E8</f>
+        <v>2</v>
+      </c>
+      <c r="Z62" s="47">
+        <f>E12</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="47"/>
+      <c r="Z63" s="47"/>
+    </row>
+    <row r="64">
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
+    </row>
+    <row r="65">
+      <c r="V65" s="47"/>
+      <c r="W65" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="X65" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y65" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z65" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="V66" s="47"/>
+      <c r="W66" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="X66" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" s="47">
+        <f t="shared" ref="Y66:Y68" si="3">C9</f>
+        <v>0.25</v>
+      </c>
+      <c r="Z66" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="V67" s="47"/>
+      <c r="W67" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="X67" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" s="47">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z67" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="V68" s="47"/>
+      <c r="W68" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="X68" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" s="47">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="Z68" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="V69" s="47"/>
+      <c r="W69" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="X69" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="Y69" s="47">
+        <f t="shared" ref="Y69:Y71" si="4">D9</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z69" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="V70" s="47"/>
+      <c r="W70" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="X70" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="Y70" s="47">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
+      <c r="Z70" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="V71" s="47"/>
+      <c r="W71" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="X71" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="Y71" s="47">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z71" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="V72" s="47"/>
+      <c r="W72" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="X72" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="Y72" s="47">
+        <f t="shared" ref="Y72:Y74" si="5">E9</f>
+        <v>0.02</v>
+      </c>
+      <c r="Z72" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="V73" s="47"/>
+      <c r="W73" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="X73" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="Y73" s="47">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="Z73" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="V74" s="47"/>
+      <c r="W74" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="X74" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="Y74" s="50">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z74" s="48">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="V75" s="47"/>
+      <c r="W75" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47">
+        <f>SUM(Y66:Y74)</f>
+        <v>1</v>
+      </c>
+      <c r="Z75" s="47"/>
+    </row>
+    <row r="76">
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
+    </row>
+    <row r="77">
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+    </row>
+    <row r="78">
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+    </row>
+    <row r="79">
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+    </row>
+    <row r="80">
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+    </row>
+    <row r="81">
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
+    </row>
+    <row r="82">
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+    </row>
+    <row r="83">
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
+    </row>
+    <row r="84">
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="47"/>
+    </row>
+    <row r="85">
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="47"/>
+      <c r="Z85" s="47"/>
+    </row>
+    <row r="86">
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="47"/>
+    </row>
+    <row r="87">
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="47"/>
+    </row>
+    <row r="88">
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
+      <c r="X88" s="47"/>
+      <c r="Y88" s="47"/>
+      <c r="Z88" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I15">
